--- a/CS465-Security/Projects/TimeTOCrack.xlsx
+++ b/CS465-Security/Projects/TimeTOCrack.xlsx
@@ -87,8 +87,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="17">
+  <cellStyleXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -110,7 +120,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="17">
+  <cellStyles count="27">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -119,6 +129,11 @@
     <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -127,6 +142,11 @@
     <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -459,13 +479,13 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9:C12"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="2" max="3" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -473,8 +493,8 @@
         <v>6</v>
       </c>
       <c r="B1">
-        <f>POWER(36, 6)</f>
-        <v>2176782336</v>
+        <f>POWER(62, 6)</f>
+        <v>56800235584</v>
       </c>
       <c r="C1" s="1">
         <f>1898*1000*4</f>
@@ -482,23 +502,23 @@
       </c>
       <c r="D1">
         <f>(B1/C1)</f>
-        <v>286.72053951527926</v>
+        <v>7481.5905669125395</v>
       </c>
       <c r="E1">
         <f>D1/60</f>
-        <v>4.7786756585879875</v>
+        <v>124.693176115209</v>
       </c>
       <c r="F1">
         <f>E1/60</f>
-        <v>7.9644594309799796E-2</v>
+        <v>2.07821960192015</v>
       </c>
       <c r="G1">
         <f>F1/24</f>
-        <v>3.3185247629083248E-3</v>
+        <v>8.6592483413339583E-2</v>
       </c>
       <c r="H1">
         <f>G1/365</f>
-        <v>9.0918486655022598E-6</v>
+        <v>2.3723968058449201E-4</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -506,8 +526,8 @@
         <v>8</v>
       </c>
       <c r="B2">
-        <f>POWER(36, 8)</f>
-        <v>2821109907456</v>
+        <f>POWER(62, 8)</f>
+        <v>218340105584896</v>
       </c>
       <c r="C2" s="1">
         <f t="shared" ref="C2:C3" si="0">1898*1000*4</f>
@@ -515,23 +535,23 @@
       </c>
       <c r="D2">
         <f t="shared" ref="D2:D3" si="1">(B2/C2)</f>
-        <v>371589.81921180192</v>
+        <v>28759234.139211804</v>
       </c>
       <c r="E2">
         <f t="shared" ref="E2:F3" si="2">D2/60</f>
-        <v>6193.1636535300322</v>
+        <v>479320.56898686342</v>
       </c>
       <c r="F2">
         <f t="shared" si="2"/>
-        <v>103.21939422550054</v>
+        <v>7988.6761497810567</v>
       </c>
       <c r="G2">
         <f t="shared" ref="G2:G4" si="3">F2/24</f>
-        <v>4.3008080927291887</v>
+        <v>332.86150624087736</v>
       </c>
       <c r="H2">
         <f t="shared" ref="H2:H4" si="4">G2/365</f>
-        <v>1.1783035870490928E-2</v>
+        <v>0.91194933216678731</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -539,8 +559,8 @@
         <v>10</v>
       </c>
       <c r="B3">
-        <f>POWER(36, 10)</f>
-        <v>3656158440062976</v>
+        <f>POWER(62, 10)</f>
+        <v>8.3929936586834022E+17</v>
       </c>
       <c r="C3" s="1">
         <f t="shared" si="0"/>
@@ -548,23 +568,23 @@
       </c>
       <c r="D3">
         <f t="shared" si="1"/>
-        <v>481580405.69849527</v>
+        <v>110550496031.13017</v>
       </c>
       <c r="E3">
         <f t="shared" si="2"/>
-        <v>8026340.0949749211</v>
+        <v>1842508267.1855028</v>
       </c>
       <c r="F3">
         <f t="shared" si="2"/>
-        <v>133772.33491624868</v>
+        <v>30708471.119758379</v>
       </c>
       <c r="G3">
         <f t="shared" si="3"/>
-        <v>5573.8472881770285</v>
+        <v>1279519.6299899325</v>
       </c>
       <c r="H3">
         <f t="shared" si="4"/>
-        <v>15.270814488156242</v>
+        <v>3505.5332328491304</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -572,8 +592,8 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <f>POWER(36, 12)</f>
-        <v>4.7383813383216169E+18</v>
+        <f>POWER(62, 12)</f>
+        <v>3.2262667623978998E+21</v>
       </c>
       <c r="C4" s="1">
         <f>1898*1000*4</f>
@@ -581,23 +601,23 @@
       </c>
       <c r="D4">
         <f>(B4/C4)</f>
-        <v>624128205785.24988</v>
+        <v>424956106743664.38</v>
       </c>
       <c r="E4">
         <f>D4/60</f>
-        <v>10402136763.087498</v>
+        <v>7082601779061.0732</v>
       </c>
       <c r="F4">
         <f t="shared" ref="F4" si="5">E4/60</f>
-        <v>173368946.0514583</v>
+        <v>118043362984.35123</v>
       </c>
       <c r="G4">
         <f t="shared" si="3"/>
-        <v>7223706.0854774294</v>
+        <v>4918473457.6813011</v>
       </c>
       <c r="H4">
         <f t="shared" si="4"/>
-        <v>19790.975576650493</v>
+        <v>13475269.747072058</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -622,31 +642,31 @@
         <v>6</v>
       </c>
       <c r="B9">
-        <f>POWER(36, 6)</f>
-        <v>2176782336</v>
+        <f>POWER(62, 6)</f>
+        <v>56800235584</v>
       </c>
       <c r="C9">
         <v>33100000000</v>
       </c>
       <c r="D9">
         <f>B9/C9</f>
-        <v>6.5763816797583086E-2</v>
+        <v>1.7160192019335347</v>
       </c>
       <c r="E9">
         <f>D9/60</f>
-        <v>1.0960636132930515E-3</v>
+        <v>2.8600320032225578E-2</v>
       </c>
       <c r="F9">
         <f>E9/60</f>
-        <v>1.8267726888217525E-5</v>
+        <v>4.7667200053709297E-4</v>
       </c>
       <c r="G9">
         <f>F9/60</f>
-        <v>3.0446211480362543E-7</v>
+        <v>7.9445333422848825E-6</v>
       </c>
       <c r="H9">
         <f>G9/60</f>
-        <v>5.0743685800604239E-9</v>
+        <v>1.3240888903808138E-7</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -654,31 +674,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <f>POWER(36, 8)</f>
-        <v>2821109907456</v>
+        <f>POWER(62, 8)</f>
+        <v>218340105584896</v>
       </c>
       <c r="C10">
         <v>33100000000</v>
       </c>
       <c r="D10">
         <f t="shared" ref="D10:D12" si="6">B10/C10</f>
-        <v>85.229906569667676</v>
+        <v>6596.3778122325075</v>
       </c>
       <c r="E10">
         <f t="shared" ref="E10:H12" si="7">D10/60</f>
-        <v>1.4204984428277947</v>
+        <v>109.93963020387513</v>
       </c>
       <c r="F10">
         <f t="shared" si="7"/>
-        <v>2.3674974047129912E-2</v>
+        <v>1.8323271700645853</v>
       </c>
       <c r="G10">
         <f t="shared" si="7"/>
-        <v>3.9458290078549853E-4</v>
+        <v>3.0538786167743089E-2</v>
       </c>
       <c r="H10">
         <f t="shared" si="7"/>
-        <v>6.5763816797583092E-6</v>
+        <v>5.0897976946238477E-4</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -686,31 +706,31 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <f>POWER(36, 10)</f>
-        <v>3656158440062976</v>
+        <f>POWER(62, 10)</f>
+        <v>8.3929936586834022E+17</v>
       </c>
       <c r="C11">
         <v>33100000000</v>
       </c>
       <c r="D11">
         <f t="shared" si="6"/>
-        <v>110457.95891428931</v>
+        <v>25356476.310221758</v>
       </c>
       <c r="E11">
         <f t="shared" si="7"/>
-        <v>1840.9659819048218</v>
+        <v>422607.93850369594</v>
       </c>
       <c r="F11">
         <f t="shared" si="7"/>
-        <v>30.682766365080361</v>
+        <v>7043.4656417282658</v>
       </c>
       <c r="G11">
         <f t="shared" si="7"/>
-        <v>0.51137943941800601</v>
+        <v>117.39109402880443</v>
       </c>
       <c r="H11">
         <f t="shared" si="7"/>
-        <v>8.5229906569667668E-3</v>
+        <v>1.9565182338134073</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -718,31 +738,31 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <f>POWER(36, 12)</f>
-        <v>4.7383813383216169E+18</v>
+        <f>POWER(62, 12)</f>
+        <v>3.2262667623978998E+21</v>
       </c>
       <c r="C12">
         <v>33100000000</v>
       </c>
       <c r="D12">
         <f t="shared" si="6"/>
-        <v>143153514.75291893</v>
+        <v>97470294936.492447</v>
       </c>
       <c r="E12">
         <f t="shared" si="7"/>
-        <v>2385891.9125486487</v>
+        <v>1624504915.6082075</v>
       </c>
       <c r="F12">
         <f t="shared" si="7"/>
-        <v>39764.865209144147</v>
+        <v>27075081.926803458</v>
       </c>
       <c r="G12">
         <f t="shared" si="7"/>
-        <v>662.74775348573576</v>
+        <v>451251.36544672429</v>
       </c>
       <c r="H12">
         <f t="shared" si="7"/>
-        <v>11.045795891428929</v>
+        <v>7520.8560907787378</v>
       </c>
     </row>
   </sheetData>
